--- a/hw5/scalability.xlsx
+++ b/hw5/scalability.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>tasks</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>powers of 4</t>
-  </si>
-  <si>
-    <t>Nl:</t>
   </si>
   <si>
     <t>Nl</t>
@@ -62,6 +59,9 @@
   <si>
     <t>2D Multigrid MPI on Stampede</t>
   </si>
+  <si>
+    <t>100 iterations</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +73,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,8 +109,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,7 +153,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -162,6 +167,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -175,6 +183,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -291,106 +302,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>NL=500</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Weak OpenMP'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Weak OpenMP'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Nl=1000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Weak OpenMP'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Weak OpenMP'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -401,11 +312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115296936"/>
-        <c:axId val="2115304056"/>
+        <c:axId val="-2146944664"/>
+        <c:axId val="2121873288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115296936"/>
+        <c:axId val="-2146944664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115304056"/>
+        <c:crossAx val="2121873288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,18 +358,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115304056"/>
+        <c:axId val="2121873288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115296936"/>
+        <c:crossAx val="-2146944664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,11 +590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115347032"/>
-        <c:axId val="2115350008"/>
+        <c:axId val="-2146867672"/>
+        <c:axId val="-2146861960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115347032"/>
+        <c:axId val="-2146867672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115350008"/>
+        <c:crossAx val="-2146861960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,18 +636,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115350008"/>
+        <c:axId val="-2146861960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115347032"/>
+        <c:crossAx val="-2146867672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -819,13 +728,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0968057382063769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.095531015730102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0523578760877495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,47 +752,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Weak MPI'!$D$14:$D$16</c:f>
+              <c:f>'Weak MPI'!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.405906172384716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.151789408997547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Nl=1000</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Weak MPI'!$D$23:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.141015168436534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131426168"/>
-        <c:axId val="2131447736"/>
+        <c:axId val="-2146820392"/>
+        <c:axId val="-2146814632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131426168"/>
+        <c:axId val="-2146820392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131447736"/>
+        <c:crossAx val="-2146814632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,18 +825,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131447736"/>
+        <c:axId val="-2146814632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131426168"/>
+        <c:crossAx val="-2146820392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,24 +920,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Strong MPI'!$E$4:$E$8</c:f>
+              <c:f>'Strong MPI'!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.895154794637241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>5.002776925196999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.907125133221903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,10 +960,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Strong MPI'!$F$4:$F$8</c:f>
+              <c:f>'Strong MPI'!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1099,9 +975,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.015625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,11 +991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132198376"/>
-        <c:axId val="2132182616"/>
+        <c:axId val="2121918088"/>
+        <c:axId val="2121921064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132198376"/>
+        <c:axId val="2121918088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132182616"/>
+        <c:crossAx val="2121921064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1139,18 +1012,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132182616"/>
+        <c:axId val="2121921064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132198376"/>
+        <c:crossAx val="2121918088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,8 +1126,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1291,7 +1163,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1651,14 +1523,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1666,7 +1538,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1775,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1783,19 +1655,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1810,7 +1682,7 @@
         <v>220.91381699999999</v>
       </c>
       <c r="D4">
-        <f>$C$4/A4/C4</f>
+        <f t="shared" ref="D4:D9" si="0">$C$4/A4/C4</f>
         <v>1</v>
       </c>
       <c r="E4">
@@ -1830,7 +1702,7 @@
         <v>129.284739</v>
       </c>
       <c r="D5">
-        <f>$C$4/A5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.85436927323649547</v>
       </c>
       <c r="E5">
@@ -1850,11 +1722,11 @@
         <v>105.523735</v>
       </c>
       <c r="D6">
-        <f>$C$4/A6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.52337471043836725</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E9" si="0">1/A6</f>
+        <f t="shared" ref="E6:E9" si="1">1/A6</f>
         <v>0.25</v>
       </c>
     </row>
@@ -1870,11 +1742,11 @@
         <v>3.8000020000000001</v>
       </c>
       <c r="D7">
-        <f>$C$4/A7/C7</f>
+        <f t="shared" si="0"/>
         <v>3.6334490251584075</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1890,11 +1762,11 @@
         <v>0.86679899999999999</v>
       </c>
       <c r="D8">
-        <f>$C$4/A8/C8</f>
+        <f t="shared" si="0"/>
         <v>7.964426333267574</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -1909,11 +1781,11 @@
         <v>0.25349699999999997</v>
       </c>
       <c r="D9">
-        <f>$C$4/A9/C9</f>
+        <f t="shared" si="0"/>
         <v>13.616643946969788</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -1931,22 +1803,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1974,9 +1847,12 @@
         <f>4^A4</f>
         <v>1</v>
       </c>
-      <c r="D4" t="e">
+      <c r="C4">
+        <v>2.0095999999999999E-2</v>
+      </c>
+      <c r="D4">
         <f>$C$4/C4</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1984,12 +1860,15 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B8" si="0">4^A5</f>
+        <f t="shared" ref="B5:B7" si="0">4^A5</f>
         <v>4</v>
       </c>
-      <c r="D5" t="e">
-        <f t="shared" ref="D5:D8" si="1">$C$4/C5</f>
-        <v>#DIV/0!</v>
+      <c r="C5">
+        <v>0.207591</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="1">$C$4/C5</f>
+        <v>9.6805738206376959E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2000,9 +1879,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D6" t="e">
+      <c r="C6">
+        <v>0.21036099999999999</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.5531015730102059E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2013,196 +1895,98 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D7" t="e">
+      <c r="C7">
+        <v>0.38381999999999999</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="D8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.2357876087749465E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>500</v>
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12">
+        <f>4^A12</f>
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
+      <c r="C12">
+        <v>0.56415599999999999</v>
+      </c>
+      <c r="D12">
+        <f>$C$12/C12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <f>4^A13</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="e">
-        <f>$C$13/C13</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="B13:B15" si="2">4^A13</f>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1.3898680000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="3">$C$12/C13</f>
+        <v>0.40590617238471566</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B17" si="2">4^A14</f>
-        <v>4</v>
-      </c>
-      <c r="D14" t="e">
-        <f t="shared" ref="D14:D17" si="3">$C$13/C14</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3.7167020000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>0.15178940899754673</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D15" t="e">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>4.0006760000000003</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <f>4^A22</f>
-        <v>1</v>
-      </c>
-      <c r="D22" t="e">
-        <f>$C$22/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23:B26" si="4">4^A23</f>
-        <v>4</v>
-      </c>
-      <c r="D23" t="e">
-        <f t="shared" ref="D23:D26" si="5">$C$22/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="D25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="D26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.14101516843653422</v>
       </c>
     </row>
   </sheetData>
@@ -2219,11 +2003,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2232,7 +2014,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2246,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2267,12 +2049,14 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>$C$8*$B$8/B4</f>
         <v>2560</v>
       </c>
-      <c r="E4" t="e">
+      <c r="D4">
+        <v>31.946933000000001</v>
+      </c>
+      <c r="E4">
         <f>$D$4/B4/D4</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f>1/B4</f>
@@ -2284,19 +2068,21 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B8" si="0">4^A5</f>
+        <f t="shared" ref="B5:B7" si="0">4^A5</f>
         <v>4</v>
       </c>
       <c r="C5">
-        <f>$C$8*$B$8/B5</f>
         <v>640</v>
       </c>
-      <c r="E5" t="e">
+      <c r="D5">
+        <v>2.7586550000000001</v>
+      </c>
+      <c r="E5">
         <f>$D$4/B5/D5</f>
-        <v>#DIV/0!</v>
+        <v>2.8951547946372416</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="1">1/B5</f>
+        <f t="shared" ref="F5:F7" si="1">1/B5</f>
         <v>0.25</v>
       </c>
     </row>
@@ -2309,12 +2095,14 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <f>$C$8*$B$8/B6</f>
         <v>160</v>
       </c>
-      <c r="E6" t="e">
+      <c r="D6">
+        <v>0.399115</v>
+      </c>
+      <c r="E6">
         <f>$D$4/B6/D6</f>
-        <v>#DIV/0!</v>
+        <v>5.0027769251969989</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -2330,36 +2118,18 @@
         <v>64</v>
       </c>
       <c r="C7">
-        <f>$C$8*$B$8/B7</f>
         <v>40</v>
       </c>
-      <c r="E7" t="e">
+      <c r="D7">
+        <v>0.171706</v>
+      </c>
+      <c r="E7">
         <f>$D$4/B7/D7</f>
-        <v>#DIV/0!</v>
+        <v>2.9071251332219026</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="e">
-        <f>$D$4/B8/D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>3.90625E-3</v>
       </c>
     </row>
   </sheetData>
